--- a/src/tests/data/ClueLayout.xlsx
+++ b/src/tests/data/ClueLayout.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdiam\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62553E5-AECD-49AE-88A4-9780FA3878AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{287BD6DF-D718-45DE-A9B8-4C7CE1DCAEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{551E4A14-F6D3-400B-B156-65F435F96048}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -248,9 +244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +284,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -394,7 +390,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,113 +540,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7C5659-757F-4CD1-9D86-CBC1835105D8}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="113" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="31" width="5.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
       <c r="E1" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
       <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
-        <v>10</v>
-      </c>
       <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>25</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>27</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>28</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>29</v>
       </c>
-      <c r="AE1" s="1">
-        <v>30</v>
-      </c>
+      <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -743,9 +738,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -838,9 +833,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -933,9 +928,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -1028,9 +1023,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -1123,9 +1118,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -1218,9 +1213,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -1313,9 +1308,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -1408,104 +1403,104 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A11" s="1">
         <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
-      <c r="A11" s="1">
-        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -1598,199 +1593,199 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
-      <c r="A13" s="1">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A14" s="1">
         <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
-      <c r="A14" s="1">
-        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
@@ -1883,9 +1878,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -1978,9 +1973,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
@@ -2075,7 +2070,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
@@ -2170,7 +2165,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
@@ -2265,7 +2260,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
@@ -2360,7 +2355,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
@@ -2455,7 +2450,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
@@ -2550,7 +2545,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>10</v>
@@ -2645,7 +2640,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>10</v>
@@ -2740,7 +2735,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -2835,7 +2830,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -2930,7 +2925,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>10</v>
@@ -3025,7 +3020,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>10</v>
@@ -3120,7 +3115,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>10</v>
@@ -3215,7 +3210,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>10</v>
@@ -3310,7 +3305,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>10</v>
@@ -3405,7 +3400,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>10</v>
@@ -3497,6 +3492,9 @@
       <c r="AE31" s="2" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
